--- a/SIF_2023NoDuplAct.xlsx
+++ b/SIF_2023NoDuplAct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/PruebaStreamLit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Workspace\FICsAppStreamLit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4849158980793857EF6540E059292A3B7870A3EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF82CEE2-1DBA-4BDB-89F3-B67458B32217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIF_2023NoDuplAct.xlsx" sheetId="1" r:id="rId1"/>
@@ -2927,9 +2927,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2967,9 +2967,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3002,26 +3002,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3054,26 +3037,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3251,12 +3217,15 @@
   <dimension ref="A1:AK426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3479,7 +3448,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3589,7 +3558,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3699,7 +3668,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3812,7 +3781,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3925,7 +3894,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4038,7 +4007,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4148,7 +4117,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -4258,7 +4227,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -4368,7 +4337,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -4478,7 +4447,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -4588,7 +4557,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -4698,7 +4667,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -4808,7 +4777,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -4918,7 +4887,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -5028,7 +4997,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5138,7 +5107,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -5248,7 +5217,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -5358,7 +5327,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -5468,7 +5437,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -5578,7 +5547,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -5688,7 +5657,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -5798,7 +5767,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -5908,7 +5877,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -6018,7 +5987,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -6131,7 +6100,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -6241,7 +6210,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -6351,7 +6320,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -6461,7 +6430,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -6571,7 +6540,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -6681,7 +6650,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6791,7 +6760,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -6901,7 +6870,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -7011,7 +6980,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -7121,7 +7090,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -7231,7 +7200,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -7341,7 +7310,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -7451,7 +7420,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -7561,7 +7530,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -7671,7 +7640,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -7784,7 +7753,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7894,7 +7863,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -8004,7 +7973,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -8114,7 +8083,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -8224,7 +8193,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8334,7 +8303,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -8444,7 +8413,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -8554,7 +8523,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -8664,7 +8633,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -8774,7 +8743,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -8884,7 +8853,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -8994,7 +8963,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -9104,7 +9073,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -9214,7 +9183,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -9324,7 +9293,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -9434,7 +9403,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -9544,7 +9513,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -9654,7 +9623,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -9764,7 +9733,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -9874,7 +9843,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -9984,7 +9953,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -10094,7 +10063,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10204,7 +10173,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -10314,7 +10283,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -10424,7 +10393,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -10534,7 +10503,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -10644,7 +10613,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -10754,7 +10723,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -10864,7 +10833,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -10974,7 +10943,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -11084,7 +11053,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -11194,7 +11163,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -11304,7 +11273,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -11414,7 +11383,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -11524,7 +11493,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -11634,7 +11603,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -11744,7 +11713,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -11854,7 +11823,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -11964,7 +11933,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -12074,7 +12043,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -12184,7 +12153,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -12294,7 +12263,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -12404,7 +12373,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -12514,7 +12483,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -12624,7 +12593,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -12734,7 +12703,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -12844,7 +12813,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -12954,7 +12923,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -13064,7 +13033,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -13174,7 +13143,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -13284,7 +13253,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -13394,7 +13363,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -13507,7 +13476,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -13617,7 +13586,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -13727,7 +13696,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -13840,7 +13809,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>132</v>
       </c>
@@ -13950,7 +13919,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -14060,7 +14029,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>134</v>
       </c>
@@ -14170,7 +14139,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -14280,7 +14249,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -14390,7 +14359,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -14503,7 +14472,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>138</v>
       </c>
@@ -14613,7 +14582,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -14726,7 +14695,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>140</v>
       </c>
@@ -14839,7 +14808,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -14952,7 +14921,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -15062,7 +15031,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -15172,7 +15141,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -15282,7 +15251,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -15392,7 +15361,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>146</v>
       </c>
@@ -15502,7 +15471,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>147</v>
       </c>
@@ -15612,7 +15581,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>148</v>
       </c>
@@ -15722,7 +15691,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>149</v>
       </c>
@@ -15832,7 +15801,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>150</v>
       </c>
@@ -15942,7 +15911,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>151</v>
       </c>
@@ -16055,7 +16024,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -16165,7 +16134,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -16278,7 +16247,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>154</v>
       </c>
@@ -16388,7 +16357,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -16498,7 +16467,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>156</v>
       </c>
@@ -16608,7 +16577,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>157</v>
       </c>
@@ -16721,7 +16690,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>158</v>
       </c>
@@ -16831,7 +16800,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>159</v>
       </c>
@@ -16941,7 +16910,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>160</v>
       </c>
@@ -17051,7 +17020,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>161</v>
       </c>
@@ -17161,7 +17130,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>162</v>
       </c>
@@ -17271,7 +17240,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>163</v>
       </c>
@@ -17381,7 +17350,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>164</v>
       </c>
@@ -17491,7 +17460,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>165</v>
       </c>
@@ -17601,7 +17570,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>166</v>
       </c>
@@ -17714,7 +17683,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -17824,7 +17793,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -17934,7 +17903,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>169</v>
       </c>
@@ -18044,7 +18013,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>170</v>
       </c>
@@ -18154,7 +18123,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -18264,7 +18233,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -18374,7 +18343,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -18484,7 +18453,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -18594,7 +18563,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -18704,7 +18673,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -18814,7 +18783,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -18924,7 +18893,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -19034,7 +19003,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -19144,7 +19113,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -19254,7 +19223,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -19364,7 +19333,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -19474,7 +19443,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -19584,7 +19553,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -19694,7 +19663,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -19804,7 +19773,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>186</v>
       </c>
@@ -19914,7 +19883,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -20024,7 +19993,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>188</v>
       </c>
@@ -20134,7 +20103,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>189</v>
       </c>
@@ -20244,7 +20213,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>190</v>
       </c>
@@ -20354,7 +20323,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>191</v>
       </c>
@@ -20464,7 +20433,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>192</v>
       </c>
@@ -20574,7 +20543,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>193</v>
       </c>
@@ -20684,7 +20653,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -20794,7 +20763,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>195</v>
       </c>
@@ -20904,7 +20873,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>196</v>
       </c>
@@ -21014,7 +20983,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>197</v>
       </c>
@@ -21124,7 +21093,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -21234,7 +21203,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>199</v>
       </c>
@@ -21344,7 +21313,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -21454,7 +21423,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>201</v>
       </c>
@@ -21564,7 +21533,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>202</v>
       </c>
@@ -21674,7 +21643,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>203</v>
       </c>
@@ -21784,7 +21753,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>204</v>
       </c>
@@ -21894,7 +21863,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>205</v>
       </c>
@@ -22007,7 +21976,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>206</v>
       </c>
@@ -22117,7 +22086,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -22227,7 +22196,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>208</v>
       </c>
@@ -22340,7 +22309,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -22450,7 +22419,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>210</v>
       </c>
@@ -22560,7 +22529,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>211</v>
       </c>
@@ -22670,7 +22639,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>212</v>
       </c>
@@ -22780,7 +22749,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>213</v>
       </c>
@@ -22890,7 +22859,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>214</v>
       </c>
@@ -23000,7 +22969,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>215</v>
       </c>
@@ -23113,7 +23082,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -23223,7 +23192,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>217</v>
       </c>
@@ -23333,7 +23302,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -23443,7 +23412,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>219</v>
       </c>
@@ -23553,7 +23522,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>220</v>
       </c>
@@ -23663,7 +23632,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>221</v>
       </c>
@@ -23773,7 +23742,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>222</v>
       </c>
@@ -23883,7 +23852,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -23993,7 +23962,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>224</v>
       </c>
@@ -24103,7 +24072,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>225</v>
       </c>
@@ -24213,7 +24182,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>226</v>
       </c>
@@ -24323,7 +24292,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>227</v>
       </c>
@@ -24433,7 +24402,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>228</v>
       </c>
@@ -24543,7 +24512,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>229</v>
       </c>
@@ -24653,7 +24622,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>230</v>
       </c>
@@ -24763,7 +24732,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>231</v>
       </c>
@@ -24873,7 +24842,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>232</v>
       </c>
@@ -24983,7 +24952,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>233</v>
       </c>
@@ -25093,7 +25062,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>234</v>
       </c>
@@ -25206,7 +25175,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>235</v>
       </c>
@@ -25316,7 +25285,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>236</v>
       </c>
@@ -25426,7 +25395,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>237</v>
       </c>
@@ -25536,7 +25505,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>238</v>
       </c>
@@ -25646,7 +25615,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>239</v>
       </c>
@@ -25756,7 +25725,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>240</v>
       </c>
@@ -25866,7 +25835,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>241</v>
       </c>
@@ -25976,7 +25945,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>242</v>
       </c>
@@ -26086,7 +26055,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>243</v>
       </c>
@@ -26196,7 +26165,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>244</v>
       </c>
@@ -26309,7 +26278,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>245</v>
       </c>
@@ -26422,7 +26391,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>246</v>
       </c>
@@ -26535,7 +26504,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>247</v>
       </c>
@@ -26645,7 +26614,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>248</v>
       </c>
@@ -26755,7 +26724,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>249</v>
       </c>
@@ -26865,7 +26834,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>250</v>
       </c>
@@ -26975,7 +26944,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -27085,7 +27054,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>252</v>
       </c>
@@ -27195,7 +27164,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>253</v>
       </c>
@@ -27305,7 +27274,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>254</v>
       </c>
@@ -27415,7 +27384,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>255</v>
       </c>
@@ -27525,7 +27494,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>256</v>
       </c>
@@ -27635,7 +27604,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>257</v>
       </c>
@@ -27745,7 +27714,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>258</v>
       </c>
@@ -27855,7 +27824,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>259</v>
       </c>
@@ -27965,7 +27934,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>260</v>
       </c>
@@ -28075,7 +28044,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>261</v>
       </c>
@@ -28188,7 +28157,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>262</v>
       </c>
@@ -28301,7 +28270,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="228" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>263</v>
       </c>
@@ -28411,7 +28380,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="229" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>264</v>
       </c>
@@ -28521,7 +28490,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="230" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>265</v>
       </c>
@@ -28631,7 +28600,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="231" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>266</v>
       </c>
@@ -28741,7 +28710,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>267</v>
       </c>
@@ -28851,7 +28820,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="233" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>268</v>
       </c>
@@ -28961,7 +28930,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="234" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>269</v>
       </c>
@@ -29071,7 +29040,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="235" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>270</v>
       </c>
@@ -29181,7 +29150,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="236" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>271</v>
       </c>
@@ -29291,7 +29260,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="237" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>272</v>
       </c>
@@ -29401,7 +29370,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="238" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>273</v>
       </c>
@@ -29511,7 +29480,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="239" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>274</v>
       </c>
@@ -29621,7 +29590,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="240" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>275</v>
       </c>
@@ -29731,7 +29700,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="241" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>276</v>
       </c>
@@ -29841,7 +29810,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>277</v>
       </c>
@@ -29951,7 +29920,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>278</v>
       </c>
@@ -30061,7 +30030,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>279</v>
       </c>
@@ -30171,7 +30140,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="245" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -30281,7 +30250,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="246" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>281</v>
       </c>
@@ -30391,7 +30360,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="247" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>282</v>
       </c>
@@ -30501,7 +30470,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>283</v>
       </c>
@@ -30611,7 +30580,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>284</v>
       </c>
@@ -30724,7 +30693,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>285</v>
       </c>
@@ -30837,7 +30806,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>286</v>
       </c>
@@ -30950,7 +30919,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>287</v>
       </c>
@@ -31063,7 +31032,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>288</v>
       </c>
@@ -31176,7 +31145,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>289</v>
       </c>
@@ -31289,7 +31258,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>290</v>
       </c>
@@ -31399,7 +31368,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>291</v>
       </c>
@@ -31509,7 +31478,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>292</v>
       </c>
@@ -31619,7 +31588,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>293</v>
       </c>
@@ -31729,7 +31698,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>294</v>
       </c>
@@ -31839,7 +31808,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>295</v>
       </c>
@@ -31952,7 +31921,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>296</v>
       </c>
@@ -32065,7 +32034,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>297</v>
       </c>
@@ -32175,7 +32144,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>298</v>
       </c>
@@ -32285,7 +32254,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>299</v>
       </c>
@@ -32398,7 +32367,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>300</v>
       </c>
@@ -32508,7 +32477,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>301</v>
       </c>
@@ -32621,7 +32590,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>302</v>
       </c>
@@ -32734,7 +32703,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>303</v>
       </c>
@@ -32844,7 +32813,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>304</v>
       </c>
@@ -32954,7 +32923,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>305</v>
       </c>
@@ -33064,7 +33033,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>306</v>
       </c>
@@ -33174,7 +33143,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>307</v>
       </c>
@@ -33284,7 +33253,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>308</v>
       </c>
@@ -33394,7 +33363,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>309</v>
       </c>
@@ -33504,7 +33473,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>310</v>
       </c>
@@ -33614,7 +33583,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>311</v>
       </c>
@@ -33724,7 +33693,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>312</v>
       </c>
@@ -33834,7 +33803,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>313</v>
       </c>
@@ -33944,7 +33913,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>314</v>
       </c>
@@ -34057,7 +34026,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>315</v>
       </c>
@@ -34167,7 +34136,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>316</v>
       </c>
@@ -34280,7 +34249,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>317</v>
       </c>
@@ -34393,7 +34362,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>318</v>
       </c>
@@ -34503,7 +34472,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>319</v>
       </c>
@@ -34616,7 +34585,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>320</v>
       </c>
@@ -34726,7 +34695,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>321</v>
       </c>
@@ -34836,7 +34805,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>322</v>
       </c>
@@ -34946,7 +34915,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>323</v>
       </c>
@@ -35056,7 +35025,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>324</v>
       </c>
@@ -35166,7 +35135,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>325</v>
       </c>
@@ -35276,7 +35245,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>326</v>
       </c>
@@ -35386,7 +35355,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>327</v>
       </c>
@@ -35496,7 +35465,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>328</v>
       </c>
@@ -35606,7 +35575,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>329</v>
       </c>
@@ -35716,7 +35685,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>330</v>
       </c>
@@ -35826,7 +35795,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>331</v>
       </c>
@@ -35936,7 +35905,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>332</v>
       </c>
@@ -36046,7 +36015,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>333</v>
       </c>
@@ -36156,7 +36125,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>334</v>
       </c>
@@ -36269,7 +36238,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>335</v>
       </c>
@@ -36379,7 +36348,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>336</v>
       </c>
@@ -36489,7 +36458,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>337</v>
       </c>
@@ -36602,7 +36571,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>338</v>
       </c>
@@ -36715,7 +36684,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>339</v>
       </c>
@@ -36828,7 +36797,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>340</v>
       </c>
@@ -36941,7 +36910,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>341</v>
       </c>
@@ -37051,7 +37020,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>342</v>
       </c>
@@ -37161,7 +37130,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>343</v>
       </c>
@@ -37271,7 +37240,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>344</v>
       </c>
@@ -37381,7 +37350,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>345</v>
       </c>
@@ -37494,7 +37463,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>346</v>
       </c>
@@ -37607,7 +37576,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>347</v>
       </c>
@@ -37717,7 +37686,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>348</v>
       </c>
@@ -37827,7 +37796,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>349</v>
       </c>
@@ -37937,7 +37906,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>350</v>
       </c>
@@ -38050,7 +38019,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>351</v>
       </c>
@@ -38160,7 +38129,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>352</v>
       </c>
@@ -38270,7 +38239,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>353</v>
       </c>
@@ -38380,7 +38349,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>354</v>
       </c>
@@ -38490,7 +38459,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>355</v>
       </c>
@@ -38600,7 +38569,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>356</v>
       </c>
@@ -38710,7 +38679,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>357</v>
       </c>
@@ -38820,7 +38789,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>358</v>
       </c>
@@ -38930,7 +38899,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>359</v>
       </c>
@@ -39040,7 +39009,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>360</v>
       </c>
@@ -39150,7 +39119,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>361</v>
       </c>
@@ -39260,7 +39229,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>362</v>
       </c>
@@ -39370,7 +39339,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>363</v>
       </c>
@@ -39480,7 +39449,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>364</v>
       </c>
@@ -39590,7 +39559,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>365</v>
       </c>
@@ -39700,7 +39669,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>366</v>
       </c>
@@ -39810,7 +39779,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>367</v>
       </c>
@@ -39920,7 +39889,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>368</v>
       </c>
@@ -40030,7 +39999,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>369</v>
       </c>
@@ -40140,7 +40109,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>370</v>
       </c>
@@ -40250,7 +40219,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>371</v>
       </c>
@@ -40360,7 +40329,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>372</v>
       </c>
@@ -40470,7 +40439,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>373</v>
       </c>
@@ -40580,7 +40549,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>374</v>
       </c>
@@ -40690,7 +40659,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>375</v>
       </c>
@@ -40803,7 +40772,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>376</v>
       </c>
@@ -40913,7 +40882,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>377</v>
       </c>
@@ -41026,7 +40995,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>378</v>
       </c>
@@ -41139,7 +41108,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>379</v>
       </c>
@@ -41249,7 +41218,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>380</v>
       </c>
@@ -41359,7 +41328,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>381</v>
       </c>
@@ -41469,7 +41438,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>382</v>
       </c>
@@ -41579,7 +41548,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>383</v>
       </c>
@@ -41689,7 +41658,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>384</v>
       </c>
@@ -41799,7 +41768,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>385</v>
       </c>
@@ -41909,7 +41878,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>386</v>
       </c>
@@ -42019,7 +41988,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>387</v>
       </c>
@@ -42129,7 +42098,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>388</v>
       </c>
@@ -42239,7 +42208,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>389</v>
       </c>
@@ -42349,7 +42318,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>390</v>
       </c>
@@ -42459,7 +42428,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>391</v>
       </c>
@@ -42569,7 +42538,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="357" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>392</v>
       </c>
@@ -42679,7 +42648,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>393</v>
       </c>
@@ -42789,7 +42758,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="359" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>394</v>
       </c>
@@ -42899,7 +42868,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>395</v>
       </c>
@@ -43009,7 +42978,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>396</v>
       </c>
@@ -43119,7 +43088,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>397</v>
       </c>
@@ -43229,7 +43198,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>398</v>
       </c>
@@ -43339,7 +43308,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>399</v>
       </c>
@@ -43449,7 +43418,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="365" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>400</v>
       </c>
@@ -43559,7 +43528,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="366" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>401</v>
       </c>
@@ -43669,7 +43638,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>402</v>
       </c>
@@ -43782,7 +43751,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>403</v>
       </c>
@@ -43895,7 +43864,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>404</v>
       </c>
@@ -44005,7 +43974,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>405</v>
       </c>
@@ -44115,7 +44084,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>406</v>
       </c>
@@ -44225,7 +44194,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>407</v>
       </c>
@@ -44335,7 +44304,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>408</v>
       </c>
@@ -44445,7 +44414,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -44555,7 +44524,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>410</v>
       </c>
@@ -44668,7 +44637,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>411</v>
       </c>
@@ -44781,7 +44750,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="377" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>412</v>
       </c>
@@ -44894,7 +44863,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>413</v>
       </c>
@@ -45007,7 +44976,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="379" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>414</v>
       </c>
@@ -45120,7 +45089,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="380" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>415</v>
       </c>
@@ -45230,7 +45199,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>416</v>
       </c>
@@ -45340,7 +45309,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="382" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>417</v>
       </c>
@@ -45450,7 +45419,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="383" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>418</v>
       </c>
@@ -45560,7 +45529,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="384" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>419</v>
       </c>
@@ -45670,7 +45639,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="385" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>420</v>
       </c>
@@ -45780,7 +45749,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="386" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>421</v>
       </c>
@@ -45890,7 +45859,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="387" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>422</v>
       </c>
@@ -46000,7 +45969,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="388" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>423</v>
       </c>
@@ -46110,7 +46079,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="389" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>424</v>
       </c>
@@ -46220,7 +46189,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="390" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>425</v>
       </c>
@@ -46330,7 +46299,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="391" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>426</v>
       </c>
@@ -46440,7 +46409,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="392" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>427</v>
       </c>
@@ -46550,7 +46519,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="393" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>428</v>
       </c>
@@ -46660,7 +46629,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="394" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>429</v>
       </c>
@@ -46770,7 +46739,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="395" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>430</v>
       </c>
@@ -46880,7 +46849,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="396" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>431</v>
       </c>
@@ -46990,7 +46959,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="397" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>432</v>
       </c>
@@ -47100,7 +47069,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="398" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>433</v>
       </c>
@@ -47210,7 +47179,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="399" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>434</v>
       </c>
@@ -47320,7 +47289,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="400" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>435</v>
       </c>
@@ -47430,7 +47399,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="401" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>436</v>
       </c>
@@ -47540,7 +47509,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="402" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>437</v>
       </c>
@@ -47650,7 +47619,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="403" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>438</v>
       </c>
@@ -47760,7 +47729,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="404" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>439</v>
       </c>
@@ -47870,7 +47839,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="405" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -47980,7 +47949,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="406" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>441</v>
       </c>
@@ -48093,7 +48062,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="407" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -48206,7 +48175,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="408" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>443</v>
       </c>
@@ -48319,7 +48288,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="409" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -48432,7 +48401,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="410" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>445</v>
       </c>
@@ -48545,7 +48514,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="411" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -48655,7 +48624,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="412" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>447</v>
       </c>
@@ -48765,7 +48734,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="413" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -48875,7 +48844,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="414" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>449</v>
       </c>
@@ -48985,7 +48954,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="415" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -49095,7 +49064,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="416" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>451</v>
       </c>
@@ -49205,7 +49174,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="417" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -49315,7 +49284,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="418" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>453</v>
       </c>
@@ -49425,7 +49394,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="419" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -49535,7 +49504,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="420" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>455</v>
       </c>
@@ -49645,7 +49614,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="421" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>456</v>
       </c>
@@ -49755,7 +49724,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="422" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -49868,7 +49837,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="423" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -49978,7 +49947,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="424" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>459</v>
       </c>
@@ -50091,7 +50060,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="425" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -50201,7 +50170,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="426" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>461</v>
       </c>
